--- a/docs/excel/TTask.xlsx
+++ b/docs/excel/TTask.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -125,6 +125,24 @@
   </si>
   <si>
     <t>奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请其他玩家注册游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6002-10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,7 +563,7 @@
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,9 +664,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>99999</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9"/>

--- a/docs/excel/TTask.xlsx
+++ b/docs/excel/TTask.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -643,7 +643,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -657,7 +657,7 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>

--- a/docs/excel/TTask.xlsx
+++ b/docs/excel/TTask.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -143,6 +143,10 @@
       </rPr>
       <t>0</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6002-100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +567,7 @@
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -643,7 +647,7 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
@@ -657,10 +661,10 @@
         <v>29</v>
       </c>
       <c r="C7">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">

--- a/docs/excel/TTask.xlsx
+++ b/docs/excel/TTask.xlsx
@@ -74,10 +74,6 @@
     <t>ObjectType</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Reward</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,6 +143,10 @@
   </si>
   <si>
     <t>6002-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +567,7 @@
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -583,27 +583,27 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,16 +613,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -630,13 +630,13 @@
         <v>1001</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -644,13 +644,13 @@
         <v>1002</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -658,13 +658,13 @@
         <v>1003</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>10000</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -672,13 +672,13 @@
         <v>1004</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>99999</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2037,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
